--- a/Segundos parciales/Reguilo 2do parcial ECO (1).xlsx
+++ b/Segundos parciales/Reguilo 2do parcial ECO (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Repositorio\2020_Economia_HernanRRD\Segundos parciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938C67D9-CF22-4CB7-AC77-8A64BD15DA1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E4C356-6481-40F9-8396-B4B51F1B5088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,7 +1322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
